--- a/excel_data/test_excel.xlsx
+++ b/excel_data/test_excel.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_project\ui_selenium\excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8215E1E6-0007-4C84-A6F3-A9BDBFA88D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1964D68A-87B6-4811-949A-3503CCAFC1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="info" sheetId="2" r:id="rId2"/>
+    <sheet name="登录-" sheetId="1" r:id="rId1"/>
+    <sheet name="个人信息-" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="54">
   <si>
     <t>步骤ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,15 +155,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>http://shop-xo.hctestedu.com/index.php?s=/index/personal/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>更改头像，更改成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://shop-xo.hctestedu.com/index.php?s=/index/personal/index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入个人信息页</t>
+    <t>访问个人信息页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[text()='修改' and @href='javascript:;']</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -175,11 +179,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改元素样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直接填入文件</t>
+    <t>//*[@id="user-avatar-popup"]/div/div[2]/form/div[2]/div/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arguments[0].style="position: static;"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行JS脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -187,19 +199,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点击确认上传按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="user-avatar-popup"]/div/div[2]/form/div[2]/div/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arguments[0].style="position: static;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r'D:\1.png'</t>
+    <t>点击确认上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert_equal_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class="prompt-msg"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -207,11 +219,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>click</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[text()='修改' and @href='javascript:;']</t>
+    <t>upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver_fixture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用fixture启动浏览器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用fixture启动浏览器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver_fixture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\1.p</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -219,7 +259,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,7 +299,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -267,7 +307,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -275,12 +315,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
-      <sz val="14"/>
+      <sz val="16"/>
       <color theme="10"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -298,7 +344,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -321,25 +367,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -354,13 +388,13 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -642,368 +676,371 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="2" width="13.88671875" customWidth="1"/>
     <col min="3" max="3" width="20.21875" customWidth="1"/>
-    <col min="4" max="4" width="66.5546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="66.5546875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:19" ht="18" customHeight="1">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1">
+      <c r="A2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="1:19" ht="18" customHeight="1">
-      <c r="A3" s="3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:19" ht="18" customHeight="1">
-      <c r="A4" s="3">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="18" customHeight="1">
-      <c r="A5" s="3">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="6" spans="1:5" ht="18" customHeight="1">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="18" customHeight="1">
-      <c r="A6" s="3">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="7" spans="1:5" ht="18" customHeight="1">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:19" ht="18" customHeight="1">
-      <c r="A7" s="3">
-        <v>0</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="18" customHeight="1">
-      <c r="A8" s="4">
-        <v>0</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="9" spans="1:5" ht="18" customHeight="1">
+      <c r="A9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="1:19" ht="18" customHeight="1">
-      <c r="A9" s="3">
-        <v>0</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:19" ht="18" customHeight="1">
-      <c r="A10" s="3">
-        <v>0</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="18" customHeight="1">
-      <c r="A11" s="3">
-        <v>0</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    <row r="13" spans="1:5" ht="18" customHeight="1">
+      <c r="A13" s="2">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" ht="18" customHeight="1">
-      <c r="A12" s="3">
-        <v>0</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="18" customHeight="1">
+      <c r="A14" s="2">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:19" ht="18" customHeight="1">
-      <c r="A13" s="3">
-        <v>0</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1">
+      <c r="A15" s="2">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="18" customHeight="1">
-      <c r="A14" s="3">
-        <v>0</v>
-      </c>
-      <c r="B14" s="4" t="s">
+    <row r="16" spans="1:5" ht="18" customHeight="1">
+      <c r="A16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-    </row>
-    <row r="15" spans="1:19" ht="18" customHeight="1">
-      <c r="A15" s="3">
-        <v>0</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="18" customHeight="1">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="18" customHeight="1">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:19" ht="18" customHeight="1">
-      <c r="A16" s="3">
-        <v>0</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="18" customHeight="1">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1">
-      <c r="A17" s="3">
-        <v>0</v>
-      </c>
-      <c r="B17" s="3" t="s">
+    <row r="20" spans="1:5" ht="18" customHeight="1">
+      <c r="A20" s="2">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18" customHeight="1">
-      <c r="A18" s="3">
-        <v>0</v>
-      </c>
-      <c r="B18" s="3" t="s">
+    <row r="21" spans="1:5" ht="18" customHeight="1">
+      <c r="A21" s="2">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="18" customHeight="1">
-      <c r="A19" s="3">
-        <v>0</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="18" customHeight="1">
+      <c r="A22" s="2">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>17</v>
+      <c r="E22" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{FB89FA76-E6EF-4607-9B5A-34912D80CDBD}"/>
-    <hyperlink ref="D15" r:id="rId2" xr:uid="{0F606426-E8D4-4D67-9E31-610EF9644D33}"/>
-    <hyperlink ref="D9" r:id="rId3" xr:uid="{BE24FD3B-BFDF-4011-A548-215BA717EA76}"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{FB89FA76-E6EF-4607-9B5A-34912D80CDBD}"/>
+    <hyperlink ref="D18" r:id="rId2" xr:uid="{0F606426-E8D4-4D67-9E31-610EF9644D33}"/>
+    <hyperlink ref="D11" r:id="rId3" xr:uid="{BE24FD3B-BFDF-4011-A548-215BA717EA76}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -1012,38 +1049,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629C163C-78ED-454A-BAA0-6B65BD73118C}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="20.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="86.21875" customWidth="1"/>
-    <col min="5" max="5" width="43.21875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="17"/>
+    <col min="2" max="2" width="32.21875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="104.6640625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="48.5546875" style="17" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="14" customFormat="1" ht="17.399999999999999">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" s="13" customFormat="1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" s="14" customFormat="1" ht="17.399999999999999">
-      <c r="A2" s="15">
-        <v>0</v>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="14">
+        <v>-1</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>4</v>
@@ -1052,110 +1091,125 @@
         <v>5</v>
       </c>
       <c r="D2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="21">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" spans="1:5" s="14" customFormat="1" ht="17.399999999999999">
-      <c r="A3" s="15">
-        <v>0</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" spans="1:5" s="14" customFormat="1" ht="17.399999999999999">
-      <c r="A4" s="15">
-        <v>0</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="14">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="14">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="14">
+        <v>5</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="14">
+        <v>6</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="14">
+        <v>7</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="C9" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" spans="1:5" s="14" customFormat="1" ht="17.399999999999999">
-      <c r="A5" s="15">
-        <v>0</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="14" customFormat="1" ht="17.399999999999999">
-      <c r="A6" s="15">
-        <v>0</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17.399999999999999">
-      <c r="A7" s="15">
-        <v>0</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="17.399999999999999">
-      <c r="A8" s="15">
-        <v>0</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>41</v>
+      <c r="E9" s="18" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{E45B76F1-EED4-4F20-8398-8226A8B370C2}"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{5A242317-6AF4-447D-87E0-ABAB9F39BA4C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
